--- a/Program/CaseStudy_Output/04_23_CaseStudy_ET.xlsx
+++ b/Program/CaseStudy_Output/04_23_CaseStudy_ET.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theresawettig/PycharmProjects/2022_aCar_VRPs/Program/CaseStudy_Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D22FD2-2058-DC49-85A5-C14BAAB89B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C0F60E-91B0-2349-B0A2-582E5E6BA2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="760" windowWidth="28320" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="760" windowWidth="28320" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -17218,7 +17219,7 @@
   <dimension ref="A1:S142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20120,11 +20121,11 @@
         <v>23</v>
       </c>
       <c r="C115">
-        <f>C93+C53</f>
+        <f t="shared" ref="C115:H115" si="0">C93+C53</f>
         <v>24274.74</v>
       </c>
       <c r="D115">
-        <f t="shared" ref="D115:G115" si="0">D93+D53</f>
+        <f t="shared" si="0"/>
         <v>37021.32</v>
       </c>
       <c r="E115">
@@ -20140,7 +20141,7 @@
         <v>112311.58</v>
       </c>
       <c r="H115">
-        <f>H93+H53</f>
+        <f t="shared" si="0"/>
         <v>137280.21</v>
       </c>
     </row>
@@ -20149,11 +20150,11 @@
         <v>24</v>
       </c>
       <c r="C116">
-        <f>C115+C63</f>
+        <f t="shared" ref="C116:H116" si="1">C115+C63</f>
         <v>36714.31</v>
       </c>
       <c r="D116">
-        <f t="shared" ref="D116:H116" si="1">D115+D63</f>
+        <f t="shared" si="1"/>
         <v>74706.31</v>
       </c>
       <c r="E116">
@@ -20178,11 +20179,11 @@
         <v>25</v>
       </c>
       <c r="C119">
-        <f>C103+C53</f>
+        <f t="shared" ref="C119:H119" si="2">C103+C53</f>
         <v>48989.04</v>
       </c>
       <c r="D119">
-        <f t="shared" ref="D119:G119" si="2">D103+D53</f>
+        <f t="shared" si="2"/>
         <v>270812.22000000003</v>
       </c>
       <c r="E119">
@@ -20198,7 +20199,7 @@
         <v>2472982.9499999997</v>
       </c>
       <c r="H119">
-        <f>H103+H53</f>
+        <f t="shared" si="2"/>
         <v>2862680.04</v>
       </c>
     </row>
@@ -20207,15 +20208,15 @@
         <v>26</v>
       </c>
       <c r="C120">
-        <f>C107+C57</f>
+        <f t="shared" ref="C120:H120" si="3">C107+C57</f>
         <v>4</v>
       </c>
       <c r="D120">
-        <f>D107+D57</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="E120">
-        <f t="shared" ref="E120:H120" si="3">E107+E57</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="F120">
@@ -20236,11 +20237,11 @@
         <v>27</v>
       </c>
       <c r="C121">
-        <f>C83-C119</f>
+        <f t="shared" ref="C121:H121" si="4">C83-C119</f>
         <v>-9340.64</v>
       </c>
       <c r="D121">
-        <f t="shared" ref="D121:G121" si="4">D83-D119</f>
+        <f t="shared" si="4"/>
         <v>-6011.6500000000233</v>
       </c>
       <c r="E121">
@@ -20256,7 +20257,7 @@
         <v>-275420.16999999993</v>
       </c>
       <c r="H121">
-        <f>H83-H119</f>
+        <f t="shared" si="4"/>
         <v>-365244.79000000004</v>
       </c>
     </row>
@@ -20265,27 +20266,27 @@
         <v>28</v>
       </c>
       <c r="C123">
-        <f>C103+C93</f>
+        <f t="shared" ref="C123:H123" si="5">C103+C93</f>
         <v>48824.2</v>
       </c>
       <c r="D123">
-        <f>D103+D93</f>
+        <f t="shared" si="5"/>
         <v>258186.44</v>
       </c>
       <c r="E123">
-        <f>E103+E93</f>
+        <f t="shared" si="5"/>
         <v>662025.68999999994</v>
       </c>
       <c r="F123">
-        <f>F103+F93</f>
+        <f t="shared" si="5"/>
         <v>882552.64</v>
       </c>
       <c r="G123">
-        <f>G103+G93</f>
+        <f t="shared" si="5"/>
         <v>2385429.81</v>
       </c>
       <c r="H123">
-        <f>H103+H93</f>
+        <f t="shared" si="5"/>
         <v>2750261.71</v>
       </c>
     </row>
@@ -20294,27 +20295,27 @@
         <v>29</v>
       </c>
       <c r="C124">
-        <f>C123-C13</f>
+        <f t="shared" ref="C124:H124" si="6">C123-C13</f>
         <v>9395.5899999999965</v>
       </c>
       <c r="D124">
-        <f t="shared" ref="D124:H124" si="5">D123-D13</f>
+        <f t="shared" si="6"/>
         <v>4149.4700000000012</v>
       </c>
       <c r="E124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6332.4199999999255</v>
       </c>
       <c r="F124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14608.079999999958</v>
       </c>
       <c r="G124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>241092.04000000004</v>
       </c>
       <c r="H124">
-        <f>H123-H13</f>
+        <f t="shared" si="6"/>
         <v>436868.85999999987</v>
       </c>
     </row>
@@ -20323,27 +20324,27 @@
         <v>30</v>
       </c>
       <c r="C126">
-        <f>C63+C93</f>
+        <f t="shared" ref="C126:H126" si="7">C63+C93</f>
         <v>24494.52</v>
       </c>
       <c r="D126">
-        <f t="shared" ref="D126:H126" si="6">D63+D93</f>
+        <f t="shared" si="7"/>
         <v>49882.759999999995</v>
       </c>
       <c r="E126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>87499.18</v>
       </c>
       <c r="F126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>125033.21</v>
       </c>
       <c r="G126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>249767.49</v>
       </c>
       <c r="H126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>287315.57</v>
       </c>
     </row>
@@ -20352,27 +20353,27 @@
         <v>31</v>
       </c>
       <c r="C127">
-        <f>C73</f>
+        <f t="shared" ref="C127:H127" si="8">C73</f>
         <v>14274.73</v>
       </c>
       <c r="D127">
-        <f t="shared" ref="D127:H127" si="7">D73</f>
+        <f t="shared" si="8"/>
         <v>40897.440000000002</v>
       </c>
       <c r="E127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>75665.7</v>
       </c>
       <c r="F127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>114419.56</v>
       </c>
       <c r="G127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>540170.91</v>
       </c>
       <c r="H127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>283654.18</v>
       </c>
     </row>
@@ -20381,27 +20382,27 @@
         <v>27</v>
       </c>
       <c r="C128">
-        <f>C126-C127</f>
+        <f t="shared" ref="C128:H128" si="9">C126-C127</f>
         <v>10219.790000000001</v>
       </c>
       <c r="D128">
-        <f t="shared" ref="D128:H128" si="8">D126-D127</f>
+        <f t="shared" si="9"/>
         <v>8985.3199999999924</v>
       </c>
       <c r="E128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11833.479999999996</v>
       </c>
       <c r="F128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10613.650000000009</v>
       </c>
       <c r="G128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-290403.42000000004</v>
       </c>
       <c r="H128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3661.390000000014</v>
       </c>
     </row>
@@ -20410,27 +20411,27 @@
         <v>34</v>
       </c>
       <c r="C135">
-        <f>C103+C63+C53</f>
+        <f t="shared" ref="C135:H135" si="10">C103+C63+C53</f>
         <v>61428.61</v>
       </c>
       <c r="D135">
-        <f t="shared" ref="D135:H135" si="9">D103+D63+D53</f>
+        <f t="shared" si="10"/>
         <v>308497.21000000002</v>
       </c>
       <c r="E135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>762437.49999999988</v>
       </c>
       <c r="F135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1033043.5900000001</v>
       </c>
       <c r="G135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2710371.2199999997</v>
       </c>
       <c r="H135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3137564.67</v>
       </c>
     </row>
@@ -20439,27 +20440,27 @@
         <v>36</v>
       </c>
       <c r="C137">
-        <f>C93+C63+C53</f>
+        <f t="shared" ref="C137:H137" si="11">C93+C63+C53</f>
         <v>36714.31</v>
       </c>
       <c r="D137">
-        <f t="shared" ref="D137:H137" si="10">D93+D63+D53</f>
+        <f t="shared" si="11"/>
         <v>74706.31</v>
       </c>
       <c r="E137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>124957.81</v>
       </c>
       <c r="F137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>175023.39</v>
       </c>
       <c r="G137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>349699.85</v>
       </c>
       <c r="H137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>412164.84</v>
       </c>
     </row>
